--- a/python/Processed_Crossroad_Data2.xlsx
+++ b/python/Processed_Crossroad_Data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihansaem/project/shoong/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AF9B19-5C07-1145-BA9C-3AE52665120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12503C3-A66D-A34D-AF12-A34AAFE65F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1500" yWindow="-19720" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>횡단보도종류</t>
   </si>
@@ -31,9 +31,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>crossroad_id</t>
-  </si>
-  <si>
     <t>ntBssgRmdrCs</t>
   </si>
   <si>
@@ -178,43 +175,17 @@
     <t>nwUtsgRmdrCs</t>
   </si>
   <si>
-    <t>rgtrId</t>
-  </si>
-  <si>
-    <t>regDt</t>
-  </si>
-  <si>
     <t>일단(화살표없음)</t>
   </si>
   <si>
-    <t>v2x</t>
-  </si>
-  <si>
-    <t>2025-01-14T05:27:13.000+00:00</t>
-  </si>
-  <si>
     <t>이단(화살표있음)</t>
   </si>
   <si>
-    <t>2025-01-14T05:27:43.000+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T05:27:26.000+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T05:27:44.000+00:00</t>
-  </si>
-  <si>
     <t>일단(화살표있음)</t>
   </si>
   <si>
-    <t>2025-01-14T05:27:31.000+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T05:27:45.000+00:00</t>
-  </si>
-  <si>
-    <t>2025-01-14T05:27:46.000+00:00</t>
+    <t>crossroadID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -589,7 +560,7 @@
   <dimension ref="A1:BB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -605,162 +576,158 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
     </row>
     <row r="2" spans="1:54">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>37.512699611544477</v>
@@ -780,16 +747,10 @@
       <c r="AA2">
         <v>271</v>
       </c>
-      <c r="BA2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>37.491953548743453</v>
@@ -809,16 +770,10 @@
       <c r="U3">
         <v>206</v>
       </c>
-      <c r="BA3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>37.520635481060729</v>
@@ -838,16 +793,10 @@
       <c r="AA4">
         <v>1011</v>
       </c>
-      <c r="BA4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>37.519129923160023</v>
@@ -867,16 +816,10 @@
       <c r="AX5">
         <v>1222</v>
       </c>
-      <c r="BA5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>37.51876914906213</v>
@@ -896,16 +839,10 @@
       <c r="AX6">
         <v>1222</v>
       </c>
-      <c r="BA6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>37.520015655968237</v>
@@ -952,16 +889,10 @@
       <c r="AS7">
         <v>358</v>
       </c>
-      <c r="BA7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>37.521048201436813</v>
@@ -981,16 +912,10 @@
       <c r="AA8">
         <v>832</v>
       </c>
-      <c r="BA8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>37.520156516558252</v>
@@ -1010,16 +935,10 @@
       <c r="Z9">
         <v>325</v>
       </c>
-      <c r="BA9" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>37.500976094030683</v>
@@ -1060,16 +979,10 @@
       <c r="AA10">
         <v>36001</v>
       </c>
-      <c r="BA10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>37.500792370342538</v>
@@ -1110,16 +1023,10 @@
       <c r="AA11">
         <v>36001</v>
       </c>
-      <c r="BA11" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>37.483266601693508</v>
@@ -1166,16 +1073,10 @@
       <c r="AA12">
         <v>36001</v>
       </c>
-      <c r="BA12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>37.490557350038721</v>
@@ -1201,16 +1102,10 @@
       <c r="AA13">
         <v>359</v>
       </c>
-      <c r="BA13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>37.475978807445102</v>
@@ -1245,16 +1140,10 @@
       <c r="AY14">
         <v>379</v>
       </c>
-      <c r="BA14" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>37.492217189549017</v>
@@ -1301,16 +1190,10 @@
       <c r="AA15">
         <v>214</v>
       </c>
-      <c r="BA15" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>37.489514189687789</v>
@@ -1342,16 +1225,10 @@
       <c r="Z16">
         <v>348</v>
       </c>
-      <c r="BA16" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54">
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>37.523634892160018</v>
@@ -1370,12 +1247,6 @@
       </c>
       <c r="Z17">
         <v>55</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
